--- a/lista_concentracao.xlsx
+++ b/lista_concentracao.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>873</v>
+        <v>883</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>874</v>
+        <v>884</v>
       </c>
     </row>
     <row r="13">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>875</v>
+        <v>885</v>
       </c>
     </row>
     <row r="14">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>876</v>
+        <v>886</v>
       </c>
     </row>
     <row r="15">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>877</v>
+        <v>887</v>
       </c>
     </row>
     <row r="16">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>878</v>
+        <v>888</v>
       </c>
     </row>
     <row r="17">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>879</v>
+        <v>889</v>
       </c>
     </row>
     <row r="18">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>880</v>
+        <v>890</v>
       </c>
     </row>
     <row r="19">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>882</v>
+        <v>892</v>
       </c>
     </row>
     <row r="21">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>883</v>
+        <v>893</v>
       </c>
     </row>
     <row r="22">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>884</v>
+        <v>894</v>
       </c>
     </row>
     <row r="23">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>885</v>
+        <v>895</v>
       </c>
     </row>
     <row r="24">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>886</v>
+        <v>896</v>
       </c>
     </row>
     <row r="25">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>887</v>
+        <v>897</v>
       </c>
     </row>
     <row r="26">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>888</v>
+        <v>898</v>
       </c>
     </row>
     <row r="27">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>889</v>
+        <v>899</v>
       </c>
     </row>
     <row r="28">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>890</v>
+        <v>900</v>
       </c>
     </row>
     <row r="29">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>980</v>
+        <v>990</v>
       </c>
     </row>
     <row r="30">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>981</v>
+        <v>991</v>
       </c>
     </row>
     <row r="31">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>982</v>
+        <v>992</v>
       </c>
     </row>
     <row r="32">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>983</v>
+        <v>993</v>
       </c>
     </row>
     <row r="33">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>997</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="34">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>998</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="35">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>1021</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>1022</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>1023</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>1024</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>1025</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>1026</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>1027</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>1028</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="43">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>1029</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="44">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>1030</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="45">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>1031</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="46">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>1032</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="47">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B47">
-        <v>1033</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="48">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>1034</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="49">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>1035</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="50">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>1036</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="51">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>1037</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="52">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>1038</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="53">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>1039</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="54">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>1040</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="55">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>1041</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="56">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>1042</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="57">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>1043</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="58">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>1044</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="59">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>1045</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="60">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>1046</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="61">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>1047</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="62">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>1048</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="63">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>1049</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="64">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>1050</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="65">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>1051</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="66">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>1052</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="67">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>1053</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="68">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>1054</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="69">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>1055</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>1056</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="71">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>1057</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="72">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>1058</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="73">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>1059</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="74">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>1060</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="75">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>1061</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="76">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>1062</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="77">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>1063</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="78">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>1064</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="79">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>1065</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="80">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>1066</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="81">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>1067</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="82">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>1068</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="83">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>1069</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="84">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>1070</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="85">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>1071</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="86">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>1072</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
